--- a/data/l55_Female_first_revision.xlsx
+++ b/data/l55_Female_first_revision.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="234" documentId="11_AD4DB114E441178AC67DF42F3E16E7F2683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB6B13B1-8800-45EC-8B41-9ED86E8D1DB5}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rcs_first_revision_mean" sheetId="1" r:id="rId1"/>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1846,7 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E49F2D1-14B2-4EC2-9544-01485EF4F928}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>

--- a/data/l55_Female_first_revision.xlsx
+++ b/data/l55_Female_first_revision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4898e5cc837f6cd5/Documents/Bristol/KNIPS/code/KNIPS-Semi-Markov/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="11_AD4DB114E441178AC67DF42F3E16E7F2683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB6B13B1-8800-45EC-8B41-9ED86E8D1DB5}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="11_AD4DB114E441178AC67DF42F3E16E7F2683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CF73432-9178-47EB-9D90-701301C8E643}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rcs_first_revision_mean" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="37">
   <si>
     <t>bound1</t>
   </si>
@@ -184,8 +184,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1427,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916FC4D9-7F7F-4ABB-88CF-874043B3D3E6}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1844,15 +1845,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E49F2D1-14B2-4EC2-9544-01485EF4F928}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -1871,8 +1872,11 @@
       <c r="G1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -1891,8 +1895,11 @@
       <c r="G2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1900,7 +1907,7 @@
         <v>0.42047146000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1911,7 +1918,7 @@
         <v>71.131397000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1925,7 +1932,7 @@
         <v>85.607640000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1942,7 +1949,7 @@
         <v>1.1692260999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1962,7 +1969,7 @@
         <v>0.42047146000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1985,7 +1992,7 @@
         <v>71.131397000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2006,6 +2013,9 @@
       </c>
       <c r="G9">
         <v>-78.024443000000005</v>
+      </c>
+      <c r="H9" s="1">
+        <v>85.607640000000004</v>
       </c>
     </row>
   </sheetData>
@@ -2015,15 +2025,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38332D03-B727-46AC-AFEF-80C1DCAC7D58}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -2042,8 +2052,11 @@
       <c r="G1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -2062,8 +2075,11 @@
       <c r="G2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2071,7 +2087,7 @@
         <v>5.5318279999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2082,7 +2098,7 @@
         <v>1.65262E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2096,7 +2112,7 @@
         <v>2.7433700000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2113,7 +2129,7 @@
         <v>0.11819185</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2133,7 +2149,7 @@
         <v>5.5318279999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2156,7 +2172,7 @@
         <v>1.65262E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2177,6 +2193,9 @@
       </c>
       <c r="G9">
         <v>-2.1088299999999999E-3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.7433700000000002E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2186,15 +2205,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3AE16-EB21-4284-99CF-0CA9218C00BB}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -2213,8 +2232,11 @@
       <c r="G1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -2233,8 +2255,11 @@
       <c r="G2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2242,7 +2267,7 @@
         <v>0.56969444999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2253,7 +2278,7 @@
         <v>2.6091989999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2267,7 +2292,7 @@
         <v>3.8674159999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2284,7 +2309,7 @@
         <v>0.24812039</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2304,7 +2329,7 @@
         <v>0.56969444999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2327,7 +2352,7 @@
         <v>2.6091989999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2348,6 +2373,9 @@
       </c>
       <c r="G9">
         <v>-3.1290480000000002E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.8674159999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2357,15 +2385,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6760BE32-F139-4EDF-B1ED-51D0BE4C1296}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -2384,8 +2412,11 @@
       <c r="G1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -2404,8 +2435,11 @@
       <c r="G2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2413,7 +2447,7 @@
         <v>9.241104E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2424,7 +2458,7 @@
         <v>4.5199000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2438,7 +2472,7 @@
         <v>7.13351E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2455,7 +2489,7 @@
         <v>5.7483449999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2475,7 +2509,7 @@
         <v>9.241104E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2498,7 +2532,7 @@
         <v>4.5199000000000003E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2519,6 +2553,9 @@
       </c>
       <c r="G9">
         <v>-5.6003600000000004E-3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7.13351E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2528,15 +2565,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B91EEF-CDAB-4F7B-ABA3-4E6266E86A22}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -2555,8 +2592,11 @@
       <c r="G1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -2575,8 +2615,11 @@
       <c r="G2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2584,7 +2627,7 @@
         <v>0.70636441999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2595,7 +2638,7 @@
         <v>8.760954E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2609,7 +2652,7 @@
         <v>5.9392920000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2626,7 +2669,7 @@
         <v>8.3620609999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2646,7 +2689,7 @@
         <v>0.70636441999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2669,7 +2712,7 @@
         <v>8.760954E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2690,6 +2733,9 @@
       </c>
       <c r="G9">
         <v>-7.1176409999999996E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5.9392920000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2699,15 +2745,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6FA7F4-8E67-47E3-81E2-416898AAAC3B}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -2726,8 +2772,11 @@
       <c r="G1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -2746,8 +2795,11 @@
       <c r="G2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2755,7 +2807,7 @@
         <v>2.3806886</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2766,7 +2818,7 @@
         <v>3.4321758999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2780,7 +2832,7 @@
         <v>2.3879427999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2797,7 +2849,7 @@
         <v>0.45166137000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2817,7 +2869,7 @@
         <v>2.3806886</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2840,7 +2892,7 @@
         <v>3.4321758999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2861,6 +2913,9 @@
       </c>
       <c r="G9">
         <v>-2.8071348</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.3879427999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2873,7 +2928,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H9"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
